--- a/SchoolTimetableGeneratorGA/files/Timetable.xlsx
+++ b/SchoolTimetableGeneratorGA/files/Timetable.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Time</t>
   </si>
@@ -35,240 +35,244 @@
     <t>08:00 - 09:00</t>
   </si>
   <si>
+    <t xml:space="preserve">Course: 6
+Group: 3
+Room: 3
+Teacher: 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course: 6
+Group: 1
+Room: 2
+Teacher: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course: 1
+Group: 5
+Room: 1
+Teacher: 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course: 1
+Group: 6
+Room: 2
+Teacher: 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course: 1
+Group: 4
+Room: 1
+Teacher: 2</t>
+  </si>
+  <si>
+    <t>09:00 - 10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course: 4
+Group: 3
+Room: 1
+Teacher: 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course: 6
+Group: 1
+Room: 1
+Teacher: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course: 1
+Group: 6
+Room: 2
+Teacher: 1
+Course: 2
+Group: 7
+Room: 1
+Teacher: 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course: 1
+Group: 7
+Room: 3
+Teacher: 1
+Course: 1
+Group: 4
+Room: 2
+Teacher: 8
+Course: 6
+Group: 6
+Room: 1
+Teacher: 3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>10:00 - 11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course: 1
+Group: 3
+Room: 1
+Teacher: 7
+Course: 5
+Group: 7
+Room: 2
+Teacher: 3
+Course: 1
+Group: 1
+Room: 3
+Teacher: 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course: 6
+Group: 1
+Room: 3
+Teacher: 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course: 6
+Group: 7
+Room: 2
+Teacher: 7
+Course: 6
+Group: 3
+Room: 1
+Teacher: 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course: 6
+Group: 4
+Room: 2
+Teacher: 6
+Course: 1
+Group: 6
+Room: 3
+Teacher: 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Course: 3
-Group: 1
-Room: 3
-Teacher: 2
-Course: 4
-Group: 6
-Room: 2
-Teacher: 1</t>
+Group: 3
+Room: 1
+Teacher: 6</t>
+  </si>
+  <si>
+    <t>11:00 - 12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course: 6
+Group: 7
+Room: 2
+Teacher: 7
+Course: 2
+Group: 6
+Room: 3
+Teacher: 4</t>
   </si>
   <si>
     <t xml:space="preserve">Course: 2
-Group: 4
-Room: 3
-Teacher: 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course: 3
-Group: 6
-Room: 3
-Teacher: 4</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Course: 3
-Group: 3
-Room: 2
-Teacher: 1</t>
-  </si>
-  <si>
-    <t>09:00 - 10:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course: 6
-Group: 1
-Room: 3
-Teacher: 6
-Course: 2
-Group: 6
-Room: 2
-Teacher: 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course: 4
-Group: 3
-Room: 2
-Teacher: 4
-Course: 6
-Group: 2
-Room: 1
-Teacher: 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course: 6
-Group: 6
-Room: 1
-Teacher: 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course: 4
-Group: 3
-Room: 2
-Teacher: 2
-Course: 3
-Group: 6
-Room: 3
-Teacher: 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course: 1
-Group: 2
-Room: 1
+Group: 3
+Room: 2
 Teacher: 6
 Course: 3
-Group: 5
-Room: 3
-Teacher: 3
-Course: 1
-Group: 1
-Room: 2
-Teacher: 1</t>
-  </si>
-  <si>
-    <t>10:00 - 11:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course: 4
-Group: 1
-Room: 3
-Teacher: 6
-Course: 4
-Group: 2
-Room: 1
-Teacher: 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course: 6
-Group: 2
+Group: 1
+Room: 1
+Teacher: 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course: 1
+Group: 3
 Room: 1
 Teacher: 5
-Course: 6
-Group: 3
-Room: 2
-Teacher: 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course: 2
-Group: 2
-Room: 2
-Teacher: 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course: 2
-Group: 2
-Room: 1
-Teacher: 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course: 5
-Group: 6
-Room: 3
-Teacher: 7
 Course: 2
-Group: 2
-Room: 2
-Teacher: 3</t>
-  </si>
-  <si>
-    <t>11:00 - 12:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course: 5
-Group: 1
-Room: 2
-Teacher: 4
-Course: 6
-Group: 3
-Room: 1
-Teacher: 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course: 1
-Group: 1
-Room: 2
-Teacher: 8
-Course: 4
-Group: 7
-Room: 1
-Teacher: 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course: 3
-Group: 4
-Room: 1
-Teacher: 3
-Course: 5
-Group: 1
-Room: 3
-Teacher: 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course: 6
-Group: 2
-Room: 3
-Teacher: 7
-Course: 3
-Group: 5
-Room: 1
-Teacher: 8</t>
+Group: 7
+Room: 3
+Teacher: 7</t>
   </si>
   <si>
     <t xml:space="preserve">Course: 4
 Group: 2
 Room: 1
+Teacher: 5
+Course: 4
+Group: 6
+Room: 2
+Teacher: 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course: 1
+Group: 1
+Room: 2
 Teacher: 8
-Course: 4
-Group: 4
-Room: 3
+Course: 1
+Group: 3
+Room: 1
 Teacher: 7</t>
   </si>
   <si>
     <t>12:00 - 13:00</t>
   </si>
   <si>
+    <t xml:space="preserve">Course: 1
+Group: 7
+Room: 3
+Teacher: 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course: 3
+Group: 2
+Room: 1
+Teacher: 5
+Course: 5
+Group: 3
+Room: 2
+Teacher: 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course: 3
+Group: 1
+Room: 3
+Teacher: 4
+Course: 1
+Group: 2
+Room: 2
+Teacher: 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course: 6
+Group: 3
+Room: 1
+Teacher: 3</t>
+  </si>
+  <si>
+    <t>13:00 - 14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course: 4
+Group: 7
+Room: 3
+Teacher: 1
+Course: 2
+Group: 4
+Room: 2
+Teacher: 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course: 3
+Group: 4
+Room: 1
+Teacher: 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Course: 2
-Group: 1
-Room: 3
-Teacher: 5
-Course: 1
-Group: 4
-Room: 1
-Teacher: 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course: 6
-Group: 1
-Room: 1
-Teacher: 8
-Course: 3
+Group: 4
+Room: 2
+Teacher: 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course: 2
 Group: 5
-Room: 3
-Teacher: 6
-Course: 6
-Group: 7
-Room: 2
-Teacher: 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course: 5
-Group: 3
-Room: 3
+Room: 1
 Teacher: 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course: 5
-Group: 2
-Room: 3
-Teacher: 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course: 3
-Group: 7
-Room: 3
-Teacher: 4</t>
-  </si>
-  <si>
-    <t>13:00 - 14:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Course: 3
-Group: 7
-Room: 1
-Teacher: 1</t>
   </si>
 </sst>
 </file>
@@ -440,33 +444,33 @@
         <v>32</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
